--- a/fuentes/contenidos/grado06/guion08/EsqueletoGuion_CN_06_08_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion08/EsqueletoGuion_CN_06_08_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\Aulaplaneta All\Trabajos de editor\EDITOR\Sofía CN_06_08_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado06\guion08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1395" windowWidth="12240" windowHeight="9240" tabRatio="729" activeTab="4"/>
+    <workbookView xWindow="3405" yWindow="1395" windowWidth="12240" windowHeight="9240" tabRatio="729" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="91">
   <si>
     <t>FICHA</t>
   </si>
@@ -1833,9 +1833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2108,7 +2106,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -2120,6 +2118,15 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2145,10 +2152,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,17 +2401,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="6"/>
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:C38">
@@ -2425,7 +2443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
     </sheetView>

--- a/fuentes/contenidos/grado06/guion08/EsqueletoGuion_CN_06_08_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion08/EsqueletoGuion_CN_06_08_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado06\guion08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\Aulaplaneta All\Trabajos de editor\EDITOR\Sofía CN_06_08_CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1395" windowWidth="12240" windowHeight="9240" tabRatio="729" activeTab="2"/>
+    <workbookView xWindow="3405" yWindow="1395" windowWidth="12240" windowHeight="9240" tabRatio="729" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="CUADERNO DE ESTUDIO" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'CUADERNO DE ESTUDIO'!$A$1:$I$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'CUADERNO DE ESTUDIO'!$A$1:$I$146</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'RECURSOS NUEVOS'!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="92">
   <si>
     <t>FICHA</t>
   </si>
@@ -136,21 +136,12 @@
     <t>Evaluación</t>
   </si>
   <si>
-    <t>Fin de tema</t>
-  </si>
-  <si>
     <t>Los ecosistemas de Colombia y su conservación</t>
   </si>
   <si>
     <t>CN_06_08_CO</t>
   </si>
   <si>
-    <t>En nuestro país, el agua y la tierra promueven múltiples interacciones entre los seres vivos y de éstos con el medio que los rodea. En este tema aprenderás sobre los diversos ecosistemas acuáticos y terrestres de Colombia.</t>
-  </si>
-  <si>
-    <t>Tipos de ecosistemas</t>
-  </si>
-  <si>
     <t>Los ecosistemas acuáticos</t>
   </si>
   <si>
@@ -190,9 +181,6 @@
     <t>La biodiversidad de Colombia</t>
   </si>
   <si>
-    <t xml:space="preserve">Colombia un país megadiverso  </t>
-  </si>
-  <si>
     <t>Los países megadiversos</t>
   </si>
   <si>
@@ -289,18 +277,12 @@
     <t xml:space="preserve">Consolidación </t>
   </si>
   <si>
-    <t>Practica tus conocimientos sobre las áreas protegidas de Colombia</t>
-  </si>
-  <si>
     <t>Pequeña investigación sobre un área protegida de Colombia</t>
   </si>
   <si>
     <t>Algunos efectos de la deforestación sobre el río Magdalena</t>
   </si>
   <si>
-    <t>¿Está protegido completamente de la extinción el perico de páramo?</t>
-  </si>
-  <si>
     <t>Autoevaluación sobre los ecosistemas de Colombia y su conservación</t>
   </si>
   <si>
@@ -308,6 +290,27 @@
   </si>
   <si>
     <t>Consolidación de conocimientos sobre los ecosistemas acuáticos de Colombia</t>
+  </si>
+  <si>
+    <t>En nuestro país, el agua y la tierra promueven múltiples interacciones entre los seres vivos y de estos con el medio que los rodea. A través de estas páginas aprenderás sobre los diversos ecosistemas acuáticos y terrestres de Colombia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia, un país megadiverso </t>
+  </si>
+  <si>
+    <t>Problemas que amenazan a los ecosistemas de Colombia</t>
+  </si>
+  <si>
+    <t>¿Está completamente protegido de la extinción el perico de páramo?</t>
+  </si>
+  <si>
+    <t>Fin de unidad</t>
+  </si>
+  <si>
+    <t>Los tipos de ecosistemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La selva húmeda tropical </t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1687,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,7 +1701,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1706,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1714,7 +1717,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1831,9 +1834,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1841,7 +1846,7 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -1852,9 +1857,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1863,9 +1868,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1874,9 +1879,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>22</v>
@@ -1885,9 +1890,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1896,9 +1901,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1907,11 +1912,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1920,11 +1924,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>22</v>
@@ -1933,11 +1936,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1946,11 +1948,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -1959,11 +1960,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -1972,11 +1972,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>22</v>
@@ -1985,11 +1984,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1998,11 +1996,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -2011,11 +2008,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>22</v>
@@ -2024,11 +2020,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -2037,11 +2032,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>22</v>
@@ -2050,11 +2044,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -2063,11 +2056,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -2076,11 +2068,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -2089,11 +2080,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -2102,11 +2092,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -2115,21 +2104,11 @@
         <v>21</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24" s="4"/>
     </row>
   </sheetData>
@@ -2152,10 +2131,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2192,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2203,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -2214,7 +2193,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -2225,7 +2204,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -2236,7 +2215,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -2247,7 +2226,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -2258,7 +2237,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -2269,7 +2248,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2280,7 +2259,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2291,7 +2270,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -2302,7 +2281,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2313,7 +2292,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -2324,7 +2303,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -2335,7 +2314,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -2346,7 +2325,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -2357,7 +2336,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -2368,7 +2347,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -2379,7 +2358,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -2390,7 +2369,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -2401,28 +2380,17 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="6"/>
+      <c r="C23"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:C38">
@@ -2441,11 +2409,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X183"/>
+  <dimension ref="A1:X184"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2492,10 +2460,10 @@
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>24</v>
@@ -2509,10 +2477,10 @@
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>25</v>
@@ -2526,14 +2494,14 @@
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>24</v>
@@ -2545,14 +2513,14 @@
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>30</v>
@@ -2564,18 +2532,18 @@
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>24</v>
@@ -2585,18 +2553,18 @@
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>25</v>
@@ -2606,24 +2574,24 @@
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I8" s="43" t="s">
         <v>21</v>
@@ -2633,14 +2601,14 @@
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>24</v>
@@ -2654,18 +2622,18 @@
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>24</v>
@@ -2677,18 +2645,18 @@
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>25</v>
@@ -2700,24 +2668,24 @@
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G12" s="41" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I12" s="39" t="s">
         <v>21</v>
@@ -2725,14 +2693,14 @@
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>24</v>
@@ -2744,17 +2712,17 @@
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="50"/>
       <c r="G14" s="32"/>
@@ -2763,14 +2731,14 @@
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>24</v>
@@ -2782,14 +2750,14 @@
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>25</v>
@@ -2799,96 +2767,92 @@
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:24" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="32"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:24" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="53" t="s">
+    <row r="18" spans="1:9" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="1:9" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="48" t="s">
+      <c r="F19" s="54"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="48" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26" t="s">
+    <row r="20" spans="1:9" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:24" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="41" t="s">
@@ -2900,190 +2864,196 @@
       <c r="F21" s="52"/>
       <c r="G21" s="41"/>
       <c r="H21" s="39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I21" s="39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="1:24" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="27"/>
+        <v>24</v>
+      </c>
+      <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="1:24" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>24</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="1:24" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="55" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:24" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="55" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:24" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="C27" s="31"/>
       <c r="D27" s="55" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="1:24" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>24</v>
+      <c r="D28" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:24" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="43" t="s">
+    <row r="29" spans="1:9" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="1:9" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-    </row>
-    <row r="31" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>50</v>
-      </c>
       <c r="C31" s="25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
@@ -3092,47 +3062,32 @@
       <c r="H31" s="25"/>
       <c r="I31" s="26"/>
     </row>
-    <row r="32" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
+      <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
@@ -3158,13 +3113,13 @@
     </row>
     <row r="34" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -3189,25 +3144,21 @@
       <c r="X34" s="17"/>
     </row>
     <row r="35" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" s="45" t="s">
-        <v>21</v>
-      </c>
+      <c r="A35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
@@ -3225,21 +3176,25 @@
       <c r="X35" s="17"/>
     </row>
     <row r="36" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
+      <c r="A36" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="45" t="s">
+        <v>21</v>
+      </c>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
@@ -3257,27 +3212,21 @@
       <c r="X36" s="17"/>
     </row>
     <row r="37" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="62" t="s">
-        <v>21</v>
-      </c>
+      <c r="A37" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
@@ -3295,21 +3244,27 @@
       <c r="X37" s="17"/>
     </row>
     <row r="38" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
+      <c r="A38" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="62" t="s">
+        <v>21</v>
+      </c>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
@@ -3328,18 +3283,16 @@
     </row>
     <row r="39" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>24</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="31"/>
@@ -3362,17 +3315,17 @@
     </row>
     <row r="40" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -3396,17 +3349,17 @@
     </row>
     <row r="41" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C41" s="31"/>
       <c r="D41" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -3430,22 +3383,22 @@
     </row>
     <row r="42" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C42" s="31"/>
       <c r="D42" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
       <c r="H42" s="31"/>
-      <c r="I42" s="32"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
@@ -3464,22 +3417,22 @@
     </row>
     <row r="43" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
+      <c r="I43" s="32"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -3498,22 +3451,22 @@
     </row>
     <row r="44" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="29"/>
+        <v>49</v>
+      </c>
+      <c r="C44" s="31"/>
       <c r="D44" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
+        <v>24</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
@@ -3532,17 +3485,17 @@
     </row>
     <row r="45" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
@@ -3566,17 +3519,17 @@
     </row>
     <row r="46" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="C46" s="29"/>
       <c r="D46" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
@@ -3599,27 +3552,23 @@
       <c r="X46" s="17"/>
     </row>
     <row r="47" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="I47" s="62" t="s">
-        <v>21</v>
-      </c>
+      <c r="A47" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
@@ -3637,40 +3586,56 @@
       <c r="X47" s="17"/>
     </row>
     <row r="48" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
+      <c r="A48" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="56"/>
+      <c r="D48" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
     </row>
     <row r="49" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -3682,17 +3647,17 @@
     </row>
     <row r="50" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -3704,17 +3669,17 @@
     </row>
     <row r="51" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -3726,39 +3691,39 @@
     </row>
     <row r="52" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" s="31"/>
-      <c r="D52" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
+      <c r="D52" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
       <c r="J52" s="18"/>
       <c r="K52" s="16"/>
       <c r="L52" s="16"/>
     </row>
     <row r="53" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C53" s="31"/>
       <c r="D53" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
@@ -3770,17 +3735,17 @@
     </row>
     <row r="54" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C54" s="31"/>
       <c r="D54" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
@@ -3792,39 +3757,39 @@
     </row>
     <row r="55" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="31"/>
+      <c r="D55" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
+      <c r="E55" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
       <c r="J55" s="18"/>
       <c r="K55" s="16"/>
       <c r="L55" s="16"/>
     </row>
     <row r="56" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C56" s="31"/>
       <c r="D56" s="26" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -3836,17 +3801,17 @@
     </row>
     <row r="57" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="26" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
@@ -3858,17 +3823,17 @@
     </row>
     <row r="58" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C58" s="31"/>
       <c r="D58" s="26" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="26"/>
@@ -3879,66 +3844,66 @@
       <c r="L58" s="16"/>
     </row>
     <row r="59" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E59" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="I59" s="62" t="s">
-        <v>21</v>
-      </c>
+      <c r="A59" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="31"/>
+      <c r="D59" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
       <c r="J59" s="18"/>
       <c r="K59" s="16"/>
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
+      <c r="A60" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="43"/>
+      <c r="D60" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60" s="62" t="s">
+        <v>21</v>
+      </c>
       <c r="J60" s="18"/>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
     </row>
     <row r="61" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C61" s="31"/>
       <c r="D61" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
@@ -3950,17 +3915,17 @@
     </row>
     <row r="62" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C62" s="31"/>
       <c r="D62" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
@@ -3972,17 +3937,17 @@
     </row>
     <row r="63" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C63" s="31"/>
       <c r="D63" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
@@ -3994,39 +3959,39 @@
     </row>
     <row r="64" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C64" s="31"/>
-      <c r="D64" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
+      <c r="D64" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
       <c r="J64" s="18"/>
       <c r="K64" s="16"/>
       <c r="L64" s="16"/>
     </row>
     <row r="65" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C65" s="31"/>
       <c r="D65" s="26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F65" s="26"/>
       <c r="G65" s="26"/>
@@ -4038,17 +4003,17 @@
     </row>
     <row r="66" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C66" s="31"/>
       <c r="D66" s="26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F66" s="26"/>
       <c r="G66" s="26"/>
@@ -4060,17 +4025,17 @@
     </row>
     <row r="67" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C67" s="31"/>
       <c r="D67" s="26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F67" s="26"/>
       <c r="G67" s="26"/>
@@ -4082,17 +4047,17 @@
     </row>
     <row r="68" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="C68" s="31"/>
       <c r="D68" s="26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="26"/>
@@ -4104,65 +4069,61 @@
     </row>
     <row r="69" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E69" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
+        <v>49</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
       <c r="J69" s="18"/>
       <c r="K69" s="16"/>
       <c r="L69" s="16"/>
     </row>
     <row r="70" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="C70" s="31"/>
       <c r="D70" s="32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
       <c r="H70" s="31"/>
       <c r="I70" s="31"/>
-      <c r="J70" s="16"/>
+      <c r="J70" s="18"/>
       <c r="K70" s="16"/>
       <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
     </row>
     <row r="71" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
@@ -4178,17 +4139,17 @@
     </row>
     <row r="72" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C72" s="21"/>
       <c r="D72" s="32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
@@ -4204,17 +4165,17 @@
     </row>
     <row r="73" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C73" s="21"/>
       <c r="D73" s="32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F73" s="32"/>
       <c r="G73" s="32"/>
@@ -4230,22 +4191,22 @@
     </row>
     <row r="74" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C74" s="21"/>
-      <c r="D74" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
+      <c r="D74" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
       <c r="J74" s="16"/>
       <c r="K74" s="16"/>
       <c r="L74" s="16"/>
@@ -4256,14 +4217,14 @@
     </row>
     <row r="75" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C75" s="21"/>
       <c r="D75" s="26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E75" s="26" t="s">
         <v>24</v>
@@ -4281,27 +4242,23 @@
       <c r="P75" s="16"/>
     </row>
     <row r="76" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" s="59"/>
-      <c r="D76" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E76" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="I76" s="45" t="s">
-        <v>21</v>
-      </c>
+      <c r="A76" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
       <c r="J76" s="16"/>
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
@@ -4311,23 +4268,27 @@
       <c r="P76" s="16"/>
     </row>
     <row r="77" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
+      <c r="A77" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="59"/>
+      <c r="D77" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I77" s="45" t="s">
+        <v>21</v>
+      </c>
       <c r="J77" s="16"/>
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
@@ -4337,27 +4298,23 @@
       <c r="P77" s="16"/>
     </row>
     <row r="78" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B78" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="57" t="s">
+      <c r="A78" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E78" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="I78" s="62" t="s">
-        <v>21</v>
-      </c>
+      <c r="E78" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
       <c r="J78" s="16"/>
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
@@ -4367,21 +4324,27 @@
       <c r="P78" s="16"/>
     </row>
     <row r="79" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
+      <c r="A79" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="60"/>
+      <c r="D79" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="I79" s="62" t="s">
+        <v>21</v>
+      </c>
       <c r="J79" s="16"/>
       <c r="K79" s="16"/>
       <c r="L79" s="16"/>
@@ -4392,13 +4355,13 @@
     </row>
     <row r="80" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
@@ -4416,18 +4379,16 @@
     </row>
     <row r="81" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="25"/>
-      <c r="D81" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>24</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
       <c r="H81" s="25"/>
@@ -4442,22 +4403,20 @@
     </row>
     <row r="82" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C82" s="25"/>
       <c r="D82" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G82" s="26" t="s">
-        <v>24</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
       <c r="J82" s="16"/>
@@ -4470,21 +4429,21 @@
     </row>
     <row r="83" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C83" s="25"/>
       <c r="D83" s="26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E83" s="26"/>
       <c r="F83" s="26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
@@ -4498,21 +4457,21 @@
     </row>
     <row r="84" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C84" s="25"/>
       <c r="D84" s="26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E84" s="26"/>
       <c r="F84" s="26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
@@ -4526,21 +4485,21 @@
     </row>
     <row r="85" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C85" s="25"/>
       <c r="D85" s="26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E85" s="26"/>
       <c r="F85" s="26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
@@ -4554,21 +4513,21 @@
     </row>
     <row r="86" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C86" s="25"/>
       <c r="D86" s="26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
@@ -4582,21 +4541,21 @@
     </row>
     <row r="87" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C87" s="25"/>
       <c r="D87" s="26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E87" s="26"/>
       <c r="F87" s="26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
@@ -4610,24 +4569,24 @@
     </row>
     <row r="88" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C88" s="25"/>
       <c r="D88" s="26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E88" s="26"/>
-      <c r="F88" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G88" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
+      <c r="F88" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G88" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
       <c r="J88" s="16"/>
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
@@ -4638,21 +4597,21 @@
     </row>
     <row r="89" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C89" s="25"/>
       <c r="D89" s="26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E89" s="26"/>
       <c r="F89" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H89" s="31"/>
       <c r="I89" s="31"/>
@@ -4666,24 +4625,24 @@
     </row>
     <row r="90" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C90" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="C90" s="25"/>
       <c r="D90" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E90" s="22"/>
-      <c r="F90" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G90" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
+        <v>61</v>
+      </c>
+      <c r="E90" s="26"/>
+      <c r="F90" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G90" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
       <c r="J90" s="16"/>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
@@ -4694,21 +4653,21 @@
     </row>
     <row r="91" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C91" s="21"/>
       <c r="D91" s="26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E91" s="22"/>
       <c r="F91" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
@@ -4722,22 +4681,24 @@
     </row>
     <row r="92" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B92" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="21"/>
+      <c r="D92" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E92" s="22"/>
+      <c r="F92" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C92" s="21"/>
-      <c r="D92" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E92" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
+      <c r="G92" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
       <c r="J92" s="16"/>
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
@@ -4748,17 +4709,17 @@
     </row>
     <row r="93" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C93" s="21"/>
       <c r="D93" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E93" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F93" s="32"/>
       <c r="G93" s="32"/>
@@ -4774,17 +4735,17 @@
     </row>
     <row r="94" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C94" s="21"/>
       <c r="D94" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E94" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="32"/>
@@ -4800,17 +4761,17 @@
     </row>
     <row r="95" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C95" s="21"/>
       <c r="D95" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F95" s="32"/>
       <c r="G95" s="32"/>
@@ -4826,17 +4787,17 @@
     </row>
     <row r="96" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C96" s="21"/>
       <c r="D96" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E96" s="32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F96" s="32"/>
       <c r="G96" s="32"/>
@@ -4852,17 +4813,17 @@
     </row>
     <row r="97" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C97" s="21"/>
       <c r="D97" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F97" s="32"/>
       <c r="G97" s="32"/>
@@ -4878,17 +4839,17 @@
     </row>
     <row r="98" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C98" s="21"/>
       <c r="D98" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F98" s="32"/>
       <c r="G98" s="32"/>
@@ -4904,17 +4865,17 @@
     </row>
     <row r="99" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C99" s="21"/>
       <c r="D99" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F99" s="32"/>
       <c r="G99" s="32"/>
@@ -4930,17 +4891,17 @@
     </row>
     <row r="100" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C100" s="21"/>
       <c r="D100" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E100" s="32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F100" s="32"/>
       <c r="G100" s="32"/>
@@ -4956,22 +4917,20 @@
     </row>
     <row r="101" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C101" s="21"/>
       <c r="D101" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G101" s="32" t="s">
-        <v>24</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
       <c r="J101" s="16"/>
@@ -4984,24 +4943,24 @@
     </row>
     <row r="102" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C102" s="21"/>
       <c r="D102" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E102" s="22"/>
+        <v>65</v>
+      </c>
+      <c r="E102" s="32"/>
       <c r="F102" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H102" s="21"/>
-      <c r="I102" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
       <c r="J102" s="16"/>
       <c r="K102" s="16"/>
       <c r="L102" s="16"/>
@@ -5012,21 +4971,21 @@
     </row>
     <row r="103" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C103" s="21"/>
       <c r="D103" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E103" s="22"/>
       <c r="F103" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
@@ -5040,21 +4999,21 @@
     </row>
     <row r="104" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C104" s="21"/>
       <c r="D104" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E104" s="22"/>
       <c r="F104" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
@@ -5068,21 +5027,21 @@
     </row>
     <row r="105" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C105" s="21"/>
       <c r="D105" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E105" s="22"/>
       <c r="F105" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
@@ -5096,24 +5055,24 @@
     </row>
     <row r="106" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C106" s="21"/>
       <c r="D106" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E106" s="22"/>
-      <c r="F106" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G106" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
+      <c r="F106" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G106" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
       <c r="J106" s="16"/>
       <c r="K106" s="16"/>
       <c r="L106" s="16"/>
@@ -5124,21 +5083,21 @@
     </row>
     <row r="107" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C107" s="21"/>
       <c r="D107" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E107" s="22"/>
       <c r="F107" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G107" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
@@ -5152,24 +5111,24 @@
     </row>
     <row r="108" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C108" s="21"/>
       <c r="D108" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E108" s="22"/>
-      <c r="F108" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H108" s="23"/>
-      <c r="I108" s="23"/>
+      <c r="F108" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G108" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
       <c r="J108" s="16"/>
       <c r="K108" s="16"/>
       <c r="L108" s="16"/>
@@ -5180,21 +5139,21 @@
     </row>
     <row r="109" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C109" s="21"/>
       <c r="D109" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E109" s="22"/>
       <c r="F109" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H109" s="23"/>
       <c r="I109" s="23"/>
@@ -5208,21 +5167,21 @@
     </row>
     <row r="110" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C110" s="21"/>
       <c r="D110" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E110" s="22"/>
       <c r="F110" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H110" s="23"/>
       <c r="I110" s="23"/>
@@ -5235,29 +5194,25 @@
       <c r="P110" s="16"/>
     </row>
     <row r="111" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B111" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C111" s="60"/>
-      <c r="D111" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E111" s="61"/>
-      <c r="F111" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="G111" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H111" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="I111" s="62" t="s">
-        <v>21</v>
-      </c>
+      <c r="A111" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111" s="21"/>
+      <c r="D111" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E111" s="22"/>
+      <c r="F111" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G111" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
       <c r="J111" s="16"/>
       <c r="K111" s="16"/>
       <c r="L111" s="16"/>
@@ -5267,25 +5222,29 @@
       <c r="P111" s="16"/>
     </row>
     <row r="112" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B112" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C112" s="21"/>
-      <c r="D112" s="32" t="s">
+      <c r="A112" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="60"/>
+      <c r="D112" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E112" s="61"/>
+      <c r="F112" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G112" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G112" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
+      <c r="I112" s="62" t="s">
+        <v>21</v>
+      </c>
       <c r="J112" s="16"/>
       <c r="K112" s="16"/>
       <c r="L112" s="16"/>
@@ -5296,21 +5255,21 @@
     </row>
     <row r="113" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C113" s="21"/>
       <c r="D113" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E113" s="26"/>
       <c r="F113" s="26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G113" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
@@ -5324,21 +5283,21 @@
     </row>
     <row r="114" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C114" s="21"/>
       <c r="D114" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E114" s="26"/>
       <c r="F114" s="26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G114" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
@@ -5352,21 +5311,21 @@
     </row>
     <row r="115" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E115" s="26"/>
       <c r="F115" s="26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G115" s="26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
@@ -5379,29 +5338,25 @@
       <c r="P115" s="16"/>
     </row>
     <row r="116" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B116" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C116" s="59"/>
-      <c r="D116" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E116" s="63"/>
-      <c r="F116" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="G116" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H116" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="I116" s="45" t="s">
-        <v>21</v>
-      </c>
+      <c r="A116" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" s="21"/>
+      <c r="D116" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G116" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
       <c r="J116" s="16"/>
       <c r="K116" s="16"/>
       <c r="L116" s="16"/>
@@ -5411,23 +5366,29 @@
       <c r="P116" s="16"/>
     </row>
     <row r="117" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B117" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C117" s="21"/>
-      <c r="D117" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E117" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="21"/>
-      <c r="I117" s="21"/>
+      <c r="A117" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" s="59"/>
+      <c r="D117" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E117" s="63"/>
+      <c r="F117" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="G117" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H117" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="I117" s="45" t="s">
+        <v>21</v>
+      </c>
       <c r="J117" s="16"/>
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
@@ -5437,27 +5398,23 @@
       <c r="P117" s="16"/>
     </row>
     <row r="118" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B118" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C118" s="60"/>
-      <c r="D118" s="41" t="s">
+      <c r="A118" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C118" s="21"/>
+      <c r="D118" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E118" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F118" s="61"/>
-      <c r="G118" s="61"/>
-      <c r="H118" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="I118" s="62" t="s">
-        <v>21</v>
-      </c>
+      <c r="E118" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
       <c r="J118" s="16"/>
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
@@ -5466,22 +5423,28 @@
       <c r="O118" s="16"/>
       <c r="P118" s="16"/>
     </row>
-    <row r="119" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="23"/>
+    <row r="119" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C119" s="60"/>
+      <c r="D119" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F119" s="61"/>
+      <c r="G119" s="61"/>
+      <c r="H119" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I119" s="62" t="s">
+        <v>21</v>
+      </c>
       <c r="J119" s="16"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
@@ -5492,13 +5455,13 @@
     </row>
     <row r="120" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
@@ -5516,13 +5479,13 @@
     </row>
     <row r="121" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
@@ -5540,13 +5503,13 @@
     </row>
     <row r="122" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
@@ -5564,22 +5527,20 @@
     </row>
     <row r="123" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C123" s="21"/>
-      <c r="D123" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E123" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F123" s="26"/>
-      <c r="G123" s="26"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
+      <c r="C123" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="23"/>
       <c r="J123" s="16"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
@@ -5590,17 +5551,17 @@
     </row>
     <row r="124" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C124" s="21"/>
       <c r="D124" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F124" s="26"/>
       <c r="G124" s="26"/>
@@ -5616,17 +5577,17 @@
     </row>
     <row r="125" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C125" s="21"/>
       <c r="D125" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F125" s="26"/>
       <c r="G125" s="26"/>
@@ -5642,22 +5603,22 @@
     </row>
     <row r="126" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C126" s="21"/>
-      <c r="D126" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E126" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="21"/>
-      <c r="I126" s="21"/>
+      <c r="D126" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
       <c r="J126" s="16"/>
       <c r="K126" s="16"/>
       <c r="L126" s="16"/>
@@ -5668,17 +5629,17 @@
     </row>
     <row r="127" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C127" s="21"/>
       <c r="D127" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F127" s="22"/>
       <c r="G127" s="22"/>
@@ -5694,17 +5655,17 @@
     </row>
     <row r="128" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C128" s="21"/>
       <c r="D128" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F128" s="22"/>
       <c r="G128" s="22"/>
@@ -5720,22 +5681,22 @@
     </row>
     <row r="129" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C129" s="21"/>
-      <c r="D129" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E129" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="25"/>
-      <c r="I129" s="25"/>
+      <c r="D129" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
       <c r="J129" s="16"/>
       <c r="K129" s="16"/>
       <c r="L129" s="16"/>
@@ -5746,17 +5707,17 @@
     </row>
     <row r="130" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C130" s="21"/>
       <c r="D130" s="26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F130" s="26"/>
       <c r="G130" s="26"/>
@@ -5770,24 +5731,24 @@
       <c r="O130" s="16"/>
       <c r="P130" s="16"/>
     </row>
-    <row r="131" spans="1:16" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B131" s="37" t="s">
-        <v>79</v>
+        <v>33</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="C131" s="21"/>
-      <c r="D131" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="E131" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F131" s="22"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="21"/>
-      <c r="I131" s="21"/>
+      <c r="D131" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
       <c r="J131" s="16"/>
       <c r="K131" s="16"/>
       <c r="L131" s="16"/>
@@ -5796,26 +5757,24 @@
       <c r="O131" s="16"/>
       <c r="P131" s="16"/>
     </row>
-    <row r="132" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>79</v>
+        <v>33</v>
+      </c>
+      <c r="B132" s="37" t="s">
+        <v>75</v>
       </c>
       <c r="C132" s="21"/>
       <c r="D132" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="E132" s="20"/>
-      <c r="F132" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="G132" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H132" s="25"/>
-      <c r="I132" s="25"/>
+        <v>76</v>
+      </c>
+      <c r="E132" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="21"/>
       <c r="J132" s="16"/>
       <c r="K132" s="16"/>
       <c r="L132" s="16"/>
@@ -5826,21 +5785,21 @@
     </row>
     <row r="133" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C133" s="21"/>
       <c r="D133" s="64" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
@@ -5854,21 +5813,21 @@
     </row>
     <row r="134" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C134" s="21"/>
       <c r="D134" s="64" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H134" s="25"/>
       <c r="I134" s="25"/>
@@ -5882,24 +5841,24 @@
     </row>
     <row r="135" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C135" s="21"/>
       <c r="D135" s="64" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E135" s="20"/>
-      <c r="F135" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G135" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H135" s="23"/>
-      <c r="I135" s="21"/>
+      <c r="F135" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G135" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
       <c r="J135" s="16"/>
       <c r="K135" s="16"/>
       <c r="L135" s="16"/>
@@ -5910,24 +5869,24 @@
     </row>
     <row r="136" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C136" s="21"/>
       <c r="D136" s="64" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H136" s="23"/>
-      <c r="I136" s="25"/>
+      <c r="I136" s="21"/>
       <c r="J136" s="16"/>
       <c r="K136" s="16"/>
       <c r="L136" s="16"/>
@@ -5938,21 +5897,21 @@
     </row>
     <row r="137" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C137" s="21"/>
       <c r="D137" s="64" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H137" s="23"/>
       <c r="I137" s="25"/>
@@ -5965,29 +5924,25 @@
       <c r="P137" s="16"/>
     </row>
     <row r="138" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B138" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C138" s="59"/>
-      <c r="D138" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="E138" s="46"/>
-      <c r="F138" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="G138" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H138" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="I138" s="66" t="s">
-        <v>21</v>
-      </c>
+      <c r="A138" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C138" s="21"/>
+      <c r="D138" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="E138" s="20"/>
+      <c r="F138" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G138" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" s="23"/>
+      <c r="I138" s="25"/>
       <c r="J138" s="16"/>
       <c r="K138" s="16"/>
       <c r="L138" s="16"/>
@@ -5997,25 +5952,29 @@
       <c r="P138" s="16"/>
     </row>
     <row r="139" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B139" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C139" s="21"/>
-      <c r="D139" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="E139" s="22"/>
-      <c r="F139" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G139" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H139" s="21"/>
-      <c r="I139" s="21"/>
+      <c r="A139" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B139" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C139" s="59"/>
+      <c r="D139" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E139" s="46"/>
+      <c r="F139" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G139" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H139" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="I139" s="66" t="s">
+        <v>21</v>
+      </c>
       <c r="J139" s="16"/>
       <c r="K139" s="16"/>
       <c r="L139" s="16"/>
@@ -6025,27 +5984,25 @@
       <c r="P139" s="16"/>
     </row>
     <row r="140" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B140" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C140" s="60"/>
-      <c r="D140" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E140" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F140" s="61"/>
-      <c r="G140" s="61"/>
-      <c r="H140" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="I140" s="62" t="s">
-        <v>21</v>
-      </c>
+      <c r="A140" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C140" s="21"/>
+      <c r="D140" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="E140" s="22"/>
+      <c r="F140" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G140" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" s="21"/>
+      <c r="I140" s="21"/>
       <c r="J140" s="16"/>
       <c r="K140" s="16"/>
       <c r="L140" s="16"/>
@@ -6054,30 +6011,39 @@
       <c r="O140" s="16"/>
       <c r="P140" s="16"/>
     </row>
-    <row r="141" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B141" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C141" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B141" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C141" s="60"/>
+      <c r="D141" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E141" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="40"/>
-      <c r="E141" s="40"/>
-      <c r="F141" s="40"/>
-      <c r="G141" s="40"/>
-      <c r="H141" s="62" t="s">
-        <v>85</v>
+      <c r="F141" s="61"/>
+      <c r="G141" s="61"/>
+      <c r="H141" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="I141" s="62" t="s">
         <v>21</v>
       </c>
+      <c r="J141" s="16"/>
+      <c r="K141" s="16"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="16"/>
+      <c r="N141" s="16"/>
+      <c r="O141" s="16"/>
+      <c r="P141" s="16"/>
     </row>
     <row r="142" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B142" s="39" t="s">
         <v>31</v>
@@ -6090,7 +6056,7 @@
       <c r="F142" s="40"/>
       <c r="G142" s="40"/>
       <c r="H142" s="62" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I142" s="62" t="s">
         <v>21</v>
@@ -6098,7 +6064,7 @@
     </row>
     <row r="143" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B143" s="39" t="s">
         <v>31</v>
@@ -6111,71 +6077,81 @@
       <c r="F143" s="40"/>
       <c r="G143" s="40"/>
       <c r="H143" s="62" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I143" s="62" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B144" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C144" s="23" t="s">
+      <c r="A144" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B144" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C144" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" s="40"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="40"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="I144" s="62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C145" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D144" s="23"/>
-      <c r="E144" s="23"/>
-      <c r="F144" s="23"/>
-      <c r="G144" s="23"/>
-      <c r="H144" s="23"/>
-      <c r="I144" s="23"/>
-    </row>
-    <row r="145" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B145" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C145" s="62" t="s">
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="23"/>
+      <c r="I145" s="23"/>
+    </row>
+    <row r="146" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B146" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C146" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D145" s="62"/>
-      <c r="E145" s="62"/>
-      <c r="F145" s="62"/>
-      <c r="G145" s="62"/>
-      <c r="H145" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="I145" s="62" t="s">
+      <c r="D146" s="62"/>
+      <c r="E146" s="62"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="62"/>
+      <c r="H146" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="I146" s="62" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="19"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="20"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="33"/>
-      <c r="B147" s="34"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="35"/>
-      <c r="E147" s="35"/>
-      <c r="F147" s="35"/>
-      <c r="G147" s="35"/>
-      <c r="H147" s="33"/>
-      <c r="I147" s="36"/>
+    <row r="147" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="19"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="33"/>
@@ -6573,8 +6549,19 @@
       <c r="H183" s="33"/>
       <c r="I183" s="36"/>
     </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="33"/>
+      <c r="B184" s="34"/>
+      <c r="C184" s="34"/>
+      <c r="D184" s="35"/>
+      <c r="E184" s="35"/>
+      <c r="F184" s="35"/>
+      <c r="G184" s="35"/>
+      <c r="H184" s="33"/>
+      <c r="I184" s="36"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I145"/>
+  <autoFilter ref="A1:I146"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/fuentes/contenidos/grado06/guion08/EsqueletoGuion_CN_06_08_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion08/EsqueletoGuion_CN_06_08_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\Aulaplaneta All\Trabajos de editor\EDITOR\Sofía CN_06_08_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado06\guion08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1395" windowWidth="12240" windowHeight="9240" tabRatio="729" activeTab="4"/>
+    <workbookView xWindow="3405" yWindow="1395" windowWidth="12240" windowHeight="9240" tabRatio="729" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'CUADERNO DE ESTUDIO'!$A$1:$I$146</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'RECURSOS NUEVOS'!$A$1:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'RECURSOS NUEVOS'!$A$1:$C$23</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="93">
   <si>
     <t>FICHA</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t xml:space="preserve">La selva húmeda tropical </t>
+  </si>
+  <si>
+    <t>Maoa conceptual</t>
   </si>
 </sst>
 </file>
@@ -1834,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,7 +2098,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -2106,13 +2109,25 @@
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24" s="4"/>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C22"/>
+  <autoFilter ref="A1:C23"/>
   <sortState ref="A2:C65">
     <sortCondition ref="C2:C65"/>
   </sortState>
@@ -2131,10 +2146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2380,17 +2395,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="6"/>
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:C38">
@@ -2411,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>

--- a/fuentes/contenidos/grado06/guion08/EsqueletoGuion_CN_06_08_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion08/EsqueletoGuion_CN_06_08_CO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1395" windowWidth="12240" windowHeight="9240" tabRatio="729" activeTab="2"/>
+    <workbookView xWindow="3405" yWindow="1395" windowWidth="12240" windowHeight="9240" tabRatio="729" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="92">
   <si>
     <t>FICHA</t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t xml:space="preserve">La selva húmeda tropical </t>
-  </si>
-  <si>
-    <t>Maoa conceptual</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1687,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A28" sqref="A27:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,7 +2095,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -2149,7 +2146,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2437,9 +2434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X184"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
